--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/99/word_level_predictions_99.xlsx
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6690,366 +6690,366 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>12</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>12</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>12</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>2</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>12</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>3</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>12</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>4</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>12</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>5</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>12</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>6</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11006,260 +11006,260 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
+      <c r="A204" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B204" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" t="n">
+      <c r="D204" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E204" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B208" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11318,106 +11318,106 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G212" s="2" t="b">
@@ -11469,421 +11469,421 @@
       </c>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>19</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>The</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>3</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>19</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>4</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>19</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>5</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>19</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>6</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>19</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>7</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>19</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>8</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>19</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>9</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>19</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>10</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F220" s="2" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_remove/rem1/99/word_level_predictions_99.xlsx
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G50" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G78" t="b">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G83" t="b">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6690,366 +6690,366 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
+      <c r="A122" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="D122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
+      <c r="A123" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" s="2" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D123" t="n">
+      <c r="D123" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
+      <c r="A124" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D124" t="n">
+      <c r="D124" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
+      <c r="A125" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D125" t="n">
+      <c r="D125" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
+      <c r="A126" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D126" t="n">
+      <c r="D126" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
+      <c r="A127" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D127" t="n">
+      <c r="D127" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E127" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G184" s="2" t="b">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L184" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="F185" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G185" s="2" t="b">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L185" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11006,260 +11006,260 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -11318,106 +11318,106 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="F210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11445,445 +11445,445 @@
       </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>The</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B217" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C217" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>an</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>19</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>The</t>
-        </is>
-      </c>
-      <c r="D213" t="n">
-        <v>3</v>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>19</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
-      <c r="D214" t="n">
-        <v>4</v>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>19</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="D215" t="n">
-        <v>5</v>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>19</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>6</v>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>19</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D217" t="n">
-        <v>7</v>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>19</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="D218" t="n">
-        <v>8</v>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>19</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D219" t="n">
-        <v>9</v>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>19</v>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D220" t="n">
-        <v>10</v>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
